--- a/1_b_POLICoffee factory case study_annex1_pt2.xlsx
+++ b/1_b_POLICoffee factory case study_annex1_pt2.xlsx
@@ -5,18 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Downloads\IT_project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Documents\coding_projects\MATLAB\PoliCoffee\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F56711AE-17C3-43B6-BD7C-E8399E596B3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF31EEA9-F0D6-441F-BA3E-5087BF53B9C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Products" sheetId="1" r:id="rId1"/>
     <sheet name="Solutions" sheetId="6" r:id="rId2"/>
-    <sheet name="Setup" sheetId="10" r:id="rId3"/>
-    <sheet name="Current process" sheetId="9" r:id="rId4"/>
+    <sheet name="Current process" sheetId="9" r:id="rId3"/>
+    <sheet name="Setup" sheetId="10" r:id="rId4"/>
     <sheet name="Quality &amp; availability" sheetId="8" r:id="rId5"/>
     <sheet name="Demand" sheetId="3" r:id="rId6"/>
   </sheets>
@@ -1034,14 +1034,14 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1553,13 +1553,13 @@
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="20"/>
       <c r="B1" s="21"/>
-      <c r="C1" s="58" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
+      <c r="C1" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
       <c r="H1" s="20" t="s">
         <v>1</v>
       </c>
@@ -2153,14 +2153,14 @@
       <c r="D27" s="3"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B38" s="59" t="s">
+      <c r="B38" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="C38" s="59"/>
-      <c r="D38" s="59"/>
-      <c r="E38" s="59"/>
-      <c r="F38" s="59"/>
-      <c r="G38" s="59"/>
+      <c r="C38" s="60"/>
+      <c r="D38" s="60"/>
+      <c r="E38" s="60"/>
+      <c r="F38" s="60"/>
+      <c r="G38" s="60"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="22" t="s">
@@ -2300,7 +2300,7 @@
       <c r="B54" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="C54" s="60">
+      <c r="C54" s="58">
         <v>11</v>
       </c>
     </row>
@@ -2309,21 +2309,21 @@
       <c r="B55" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="C55" s="60"/>
+      <c r="C55" s="58"/>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="57"/>
       <c r="B56" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="C56" s="60"/>
+      <c r="C56" s="58"/>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="57"/>
       <c r="B57" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="C57" s="60"/>
+      <c r="C57" s="58"/>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="57">
@@ -2332,7 +2332,7 @@
       <c r="B58" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="C58" s="60">
+      <c r="C58" s="58">
         <v>11</v>
       </c>
     </row>
@@ -2341,7 +2341,7 @@
       <c r="B59" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="C59" s="60"/>
+      <c r="C59" s="58"/>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="42">
@@ -2378,16 +2378,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="B38:G38"/>
     <mergeCell ref="A45:A46"/>
     <mergeCell ref="A54:A57"/>
     <mergeCell ref="A58:A59"/>
     <mergeCell ref="C54:C57"/>
     <mergeCell ref="C58:C59"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="B38:G38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="64" orientation="portrait" r:id="rId1"/>
@@ -2406,7 +2406,7 @@
   <dimension ref="A1:M68"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" zoomScale="76" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2425,17 +2425,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="60" t="s">
         <v>99</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -3261,15 +3261,15 @@
       <c r="G32"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="59" t="s">
+      <c r="A33" s="60" t="s">
         <v>178</v>
       </c>
-      <c r="B33" s="59"/>
-      <c r="C33" s="59"/>
-      <c r="D33" s="59"/>
-      <c r="E33" s="59"/>
-      <c r="F33" s="59"/>
-      <c r="G33" s="59"/>
+      <c r="B33" s="60"/>
+      <c r="C33" s="60"/>
+      <c r="D33" s="60"/>
+      <c r="E33" s="60"/>
+      <c r="F33" s="60"/>
+      <c r="G33" s="60"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
@@ -3656,717 +3656,13 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDADD72D-50B9-4760-943F-9093A4F42C37}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:S24"/>
-  <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="98" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="3" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="50" customWidth="1"/>
-    <col min="3" max="7" width="14.5546875" customWidth="1"/>
-    <col min="10" max="12" width="15.5546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A1" s="20"/>
-      <c r="B1" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="C1" s="58" t="s">
-        <v>40</v>
-      </c>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="J1" s="61" t="s">
-        <v>41</v>
-      </c>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A2" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="41" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="41" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="41" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="41" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="K2" s="41" t="s">
-        <v>7</v>
-      </c>
-      <c r="L2" s="41" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A3" s="42">
-        <v>1</v>
-      </c>
-      <c r="B3" s="43" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="44">
-        <v>3</v>
-      </c>
-      <c r="D3" s="44">
-        <v>4</v>
-      </c>
-      <c r="E3" s="44">
-        <v>3</v>
-      </c>
-      <c r="F3" s="44">
-        <v>4</v>
-      </c>
-      <c r="G3" s="44">
-        <v>4</v>
-      </c>
-      <c r="J3" s="44">
-        <v>25</v>
-      </c>
-      <c r="K3" s="44">
-        <v>30</v>
-      </c>
-      <c r="L3" s="44">
-        <v>35</v>
-      </c>
-      <c r="O3" s="48"/>
-      <c r="P3" s="48"/>
-      <c r="Q3" s="48"/>
-      <c r="R3" s="48"/>
-      <c r="S3" s="48"/>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A4" s="42">
-        <v>2</v>
-      </c>
-      <c r="B4" s="43" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="44">
-        <v>2</v>
-      </c>
-      <c r="D4" s="44">
-        <v>2</v>
-      </c>
-      <c r="E4" s="44">
-        <v>2</v>
-      </c>
-      <c r="F4" s="44">
-        <v>2</v>
-      </c>
-      <c r="G4" s="44">
-        <v>2</v>
-      </c>
-      <c r="O4" s="48"/>
-      <c r="P4" s="48"/>
-      <c r="Q4" s="48"/>
-      <c r="R4" s="48"/>
-      <c r="S4" s="48"/>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A5" s="42">
-        <v>3</v>
-      </c>
-      <c r="B5" s="43" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="44">
-        <v>4</v>
-      </c>
-      <c r="D5" s="44">
-        <v>4</v>
-      </c>
-      <c r="E5" s="44">
-        <v>4</v>
-      </c>
-      <c r="F5" s="44">
-        <v>4</v>
-      </c>
-      <c r="G5" s="44">
-        <v>4</v>
-      </c>
-      <c r="O5" s="48"/>
-      <c r="P5" s="48"/>
-      <c r="Q5" s="48"/>
-      <c r="R5" s="48"/>
-      <c r="S5" s="48"/>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A6" s="57">
-        <v>4</v>
-      </c>
-      <c r="B6" s="43" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="44">
-        <v>2</v>
-      </c>
-      <c r="D6" s="44">
-        <v>0</v>
-      </c>
-      <c r="E6" s="44">
-        <v>2</v>
-      </c>
-      <c r="F6" s="44">
-        <v>0</v>
-      </c>
-      <c r="G6" s="44">
-        <v>0</v>
-      </c>
-      <c r="O6" s="48"/>
-      <c r="P6" s="48"/>
-      <c r="Q6" s="48"/>
-      <c r="R6" s="48"/>
-      <c r="S6" s="48"/>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A7" s="57"/>
-      <c r="B7" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="44">
-        <v>0</v>
-      </c>
-      <c r="D7" s="44">
-        <v>3</v>
-      </c>
-      <c r="E7" s="44">
-        <v>0</v>
-      </c>
-      <c r="F7" s="44">
-        <v>3</v>
-      </c>
-      <c r="G7" s="44">
-        <v>3</v>
-      </c>
-      <c r="O7" s="48"/>
-      <c r="P7" s="48"/>
-      <c r="Q7" s="48"/>
-      <c r="R7" s="48"/>
-      <c r="S7" s="48"/>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A8" s="42">
-        <v>5</v>
-      </c>
-      <c r="B8" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="44">
-        <v>1</v>
-      </c>
-      <c r="D8" s="44">
-        <v>1</v>
-      </c>
-      <c r="E8" s="44">
-        <v>1</v>
-      </c>
-      <c r="F8" s="44">
-        <v>1</v>
-      </c>
-      <c r="G8" s="44">
-        <v>1</v>
-      </c>
-      <c r="J8" s="48"/>
-      <c r="K8" s="48"/>
-      <c r="O8" s="48"/>
-      <c r="P8" s="48"/>
-      <c r="Q8" s="48"/>
-      <c r="R8" s="48"/>
-      <c r="S8" s="48"/>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A9" s="42">
-        <v>6</v>
-      </c>
-      <c r="B9" s="43" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="44">
-        <v>4</v>
-      </c>
-      <c r="D9" s="44">
-        <v>4</v>
-      </c>
-      <c r="E9" s="44">
-        <v>4</v>
-      </c>
-      <c r="F9" s="44">
-        <v>5</v>
-      </c>
-      <c r="G9" s="44">
-        <v>6</v>
-      </c>
-      <c r="J9" s="48"/>
-      <c r="K9" s="48"/>
-      <c r="O9" s="48"/>
-      <c r="P9" s="48"/>
-      <c r="Q9" s="48"/>
-      <c r="R9" s="48"/>
-      <c r="S9" s="48"/>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A10" s="42">
-        <v>7</v>
-      </c>
-      <c r="B10" s="43" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="44">
-        <v>0</v>
-      </c>
-      <c r="D10" s="44">
-        <v>0</v>
-      </c>
-      <c r="E10" s="44">
-        <v>2</v>
-      </c>
-      <c r="F10" s="44">
-        <v>2</v>
-      </c>
-      <c r="G10" s="44">
-        <v>0</v>
-      </c>
-      <c r="J10" s="48"/>
-      <c r="K10" s="48"/>
-      <c r="O10" s="48"/>
-      <c r="P10" s="48"/>
-      <c r="Q10" s="48"/>
-      <c r="R10" s="48"/>
-      <c r="S10" s="48"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A11" s="42">
-        <v>8</v>
-      </c>
-      <c r="B11" s="43" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="44">
-        <v>1</v>
-      </c>
-      <c r="D11" s="44">
-        <v>1</v>
-      </c>
-      <c r="E11" s="44">
-        <v>1</v>
-      </c>
-      <c r="F11" s="44">
-        <v>1</v>
-      </c>
-      <c r="G11" s="44">
-        <v>1</v>
-      </c>
-      <c r="O11" s="48"/>
-      <c r="P11" s="48"/>
-      <c r="Q11" s="48"/>
-      <c r="R11" s="48"/>
-      <c r="S11" s="48"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A12" s="42">
-        <v>9</v>
-      </c>
-      <c r="B12" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="44">
-        <v>0.5</v>
-      </c>
-      <c r="D12" s="44">
-        <v>0.5</v>
-      </c>
-      <c r="E12" s="44">
-        <v>0.5</v>
-      </c>
-      <c r="F12" s="44">
-        <v>0.5</v>
-      </c>
-      <c r="G12" s="44">
-        <v>0.5</v>
-      </c>
-      <c r="O12" s="48"/>
-      <c r="P12" s="48"/>
-      <c r="Q12" s="48"/>
-      <c r="R12" s="48"/>
-      <c r="S12" s="48"/>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A13" s="42">
-        <v>10</v>
-      </c>
-      <c r="B13" s="43" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="44">
-        <v>2</v>
-      </c>
-      <c r="D13" s="44">
-        <v>2</v>
-      </c>
-      <c r="E13" s="44">
-        <v>2</v>
-      </c>
-      <c r="F13" s="44">
-        <v>2</v>
-      </c>
-      <c r="G13" s="44">
-        <v>2</v>
-      </c>
-      <c r="O13" s="48"/>
-      <c r="P13" s="48"/>
-      <c r="Q13" s="48"/>
-      <c r="R13" s="48"/>
-      <c r="S13" s="48"/>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A14" s="42">
-        <v>11</v>
-      </c>
-      <c r="B14" s="43" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="44">
-        <v>0.5</v>
-      </c>
-      <c r="D14" s="44">
-        <v>0.5</v>
-      </c>
-      <c r="E14" s="44">
-        <v>0.5</v>
-      </c>
-      <c r="F14" s="44">
-        <v>0.5</v>
-      </c>
-      <c r="G14" s="44">
-        <v>0.5</v>
-      </c>
-      <c r="O14" s="48"/>
-      <c r="P14" s="48"/>
-      <c r="Q14" s="48"/>
-      <c r="R14" s="48"/>
-      <c r="S14" s="48"/>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A15" s="57">
-        <v>12</v>
-      </c>
-      <c r="B15" s="43" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="44">
-        <v>1</v>
-      </c>
-      <c r="D15" s="44">
-        <v>1</v>
-      </c>
-      <c r="E15" s="44">
-        <v>0</v>
-      </c>
-      <c r="F15" s="44">
-        <v>0</v>
-      </c>
-      <c r="G15" s="44">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <f>SUM(C15:C20)</f>
-        <v>1.5</v>
-      </c>
-      <c r="J15">
-        <f t="shared" ref="J15:M15" si="0">SUM(D15:D20)</f>
-        <v>2</v>
-      </c>
-      <c r="K15">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="L15">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="M15">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="O15" s="48"/>
-      <c r="P15" s="48"/>
-      <c r="Q15" s="48"/>
-      <c r="R15" s="48"/>
-      <c r="S15" s="48"/>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A16" s="57"/>
-      <c r="B16" s="43" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="44">
-        <v>0</v>
-      </c>
-      <c r="D16" s="44">
-        <v>0</v>
-      </c>
-      <c r="E16" s="44">
-        <v>1</v>
-      </c>
-      <c r="F16" s="44">
-        <v>1</v>
-      </c>
-      <c r="G16" s="44">
-        <v>0</v>
-      </c>
-      <c r="O16" s="48"/>
-      <c r="P16" s="48"/>
-      <c r="Q16" s="48"/>
-      <c r="R16" s="48"/>
-      <c r="S16" s="48"/>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A17" s="57"/>
-      <c r="B17" s="43" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" s="44">
-        <v>0</v>
-      </c>
-      <c r="D17" s="44">
-        <v>0</v>
-      </c>
-      <c r="E17" s="44">
-        <v>0</v>
-      </c>
-      <c r="F17" s="44">
-        <v>0</v>
-      </c>
-      <c r="G17" s="44">
-        <v>1</v>
-      </c>
-      <c r="O17" s="48"/>
-      <c r="P17" s="48"/>
-      <c r="Q17" s="48"/>
-      <c r="R17" s="48"/>
-      <c r="S17" s="48"/>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A18" s="57"/>
-      <c r="B18" s="43" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="44">
-        <v>0</v>
-      </c>
-      <c r="D18" s="44">
-        <v>0.5</v>
-      </c>
-      <c r="E18" s="44">
-        <v>0.5</v>
-      </c>
-      <c r="F18" s="44">
-        <v>0.5</v>
-      </c>
-      <c r="G18" s="44">
-        <v>0.5</v>
-      </c>
-      <c r="O18" s="48"/>
-      <c r="P18" s="48"/>
-      <c r="Q18" s="48"/>
-      <c r="R18" s="48"/>
-      <c r="S18" s="48"/>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A19" s="57">
-        <v>13</v>
-      </c>
-      <c r="B19" s="43" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" s="44">
-        <v>0.5</v>
-      </c>
-      <c r="D19" s="44">
-        <v>0.5</v>
-      </c>
-      <c r="E19" s="44">
-        <v>0</v>
-      </c>
-      <c r="F19" s="44">
-        <v>0</v>
-      </c>
-      <c r="G19" s="44">
-        <v>0</v>
-      </c>
-      <c r="O19" s="48"/>
-      <c r="P19" s="48"/>
-      <c r="Q19" s="48"/>
-      <c r="R19" s="48"/>
-      <c r="S19" s="48"/>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A20" s="57"/>
-      <c r="B20" s="43" t="s">
-        <v>27</v>
-      </c>
-      <c r="C20" s="44">
-        <v>0</v>
-      </c>
-      <c r="D20" s="44">
-        <v>0</v>
-      </c>
-      <c r="E20" s="44">
-        <v>0.5</v>
-      </c>
-      <c r="F20" s="44">
-        <v>0.5</v>
-      </c>
-      <c r="G20" s="44">
-        <v>0.5</v>
-      </c>
-      <c r="O20" s="48"/>
-      <c r="P20" s="48"/>
-      <c r="Q20" s="48"/>
-      <c r="R20" s="48"/>
-      <c r="S20" s="48"/>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A21" s="42">
-        <v>14</v>
-      </c>
-      <c r="B21" s="43" t="s">
-        <v>28</v>
-      </c>
-      <c r="C21" s="44">
-        <v>0.5</v>
-      </c>
-      <c r="D21" s="44">
-        <v>0.5</v>
-      </c>
-      <c r="E21" s="44">
-        <v>0.5</v>
-      </c>
-      <c r="F21" s="44">
-        <v>0.5</v>
-      </c>
-      <c r="G21" s="44">
-        <v>0.5</v>
-      </c>
-      <c r="O21" s="48"/>
-      <c r="P21" s="48"/>
-      <c r="Q21" s="48"/>
-      <c r="R21" s="48"/>
-      <c r="S21" s="48"/>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A22" s="42">
-        <v>15</v>
-      </c>
-      <c r="B22" s="43" t="s">
-        <v>29</v>
-      </c>
-      <c r="C22" s="44">
-        <v>2</v>
-      </c>
-      <c r="D22" s="44">
-        <v>2</v>
-      </c>
-      <c r="E22" s="44">
-        <v>2</v>
-      </c>
-      <c r="F22" s="44">
-        <v>2</v>
-      </c>
-      <c r="G22" s="44">
-        <v>2</v>
-      </c>
-      <c r="O22" s="48"/>
-      <c r="P22" s="48"/>
-      <c r="Q22" s="48"/>
-      <c r="R22" s="48"/>
-      <c r="S22" s="48"/>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A23" s="42">
-        <v>16</v>
-      </c>
-      <c r="B23" s="43" t="s">
-        <v>30</v>
-      </c>
-      <c r="C23" s="44">
-        <v>1</v>
-      </c>
-      <c r="D23" s="44">
-        <v>1</v>
-      </c>
-      <c r="E23" s="44">
-        <v>1</v>
-      </c>
-      <c r="F23" s="44">
-        <v>1</v>
-      </c>
-      <c r="G23" s="44">
-        <v>1</v>
-      </c>
-      <c r="O23" s="48"/>
-      <c r="P23" s="48"/>
-      <c r="Q23" s="48"/>
-      <c r="R23" s="48"/>
-      <c r="S23" s="48"/>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A24" s="46"/>
-      <c r="B24" s="24"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="21"/>
-    </row>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="J1:L1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="64" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E502C631-D743-4E63-9761-ED7ADFA27E09}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
+    <sheetView zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
       <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
@@ -4867,6 +4163,768 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="89" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDADD72D-50B9-4760-943F-9093A4F42C37}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:S24"/>
+  <sheetViews>
+    <sheetView zoomScale="98" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50" customWidth="1"/>
+    <col min="3" max="7" width="14.5546875" customWidth="1"/>
+    <col min="10" max="12" width="15.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A1" s="20"/>
+      <c r="B1" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="59" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="J1" s="61" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A2" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="41" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A3" s="42">
+        <v>1</v>
+      </c>
+      <c r="B3" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="44">
+        <v>3</v>
+      </c>
+      <c r="D3" s="44">
+        <v>4</v>
+      </c>
+      <c r="E3" s="44">
+        <v>3</v>
+      </c>
+      <c r="F3" s="44">
+        <v>4</v>
+      </c>
+      <c r="G3" s="44">
+        <v>4</v>
+      </c>
+      <c r="J3" s="44">
+        <v>25</v>
+      </c>
+      <c r="K3" s="44">
+        <v>30</v>
+      </c>
+      <c r="L3" s="44">
+        <v>35</v>
+      </c>
+      <c r="O3" s="48"/>
+      <c r="P3" s="48"/>
+      <c r="Q3" s="48"/>
+      <c r="R3" s="48"/>
+      <c r="S3" s="48"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A4" s="42">
+        <v>2</v>
+      </c>
+      <c r="B4" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="44">
+        <v>2</v>
+      </c>
+      <c r="D4" s="44">
+        <v>2</v>
+      </c>
+      <c r="E4" s="44">
+        <v>2</v>
+      </c>
+      <c r="F4" s="44">
+        <v>2</v>
+      </c>
+      <c r="G4" s="44">
+        <v>2</v>
+      </c>
+      <c r="O4" s="48"/>
+      <c r="P4" s="48"/>
+      <c r="Q4" s="48"/>
+      <c r="R4" s="48"/>
+      <c r="S4" s="48"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A5" s="42">
+        <v>3</v>
+      </c>
+      <c r="B5" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="44">
+        <v>4</v>
+      </c>
+      <c r="D5" s="44">
+        <v>4</v>
+      </c>
+      <c r="E5" s="44">
+        <v>4</v>
+      </c>
+      <c r="F5" s="44">
+        <v>4</v>
+      </c>
+      <c r="G5" s="44">
+        <v>4</v>
+      </c>
+      <c r="O5" s="48"/>
+      <c r="P5" s="48"/>
+      <c r="Q5" s="48"/>
+      <c r="R5" s="48"/>
+      <c r="S5" s="48"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A6" s="57">
+        <v>4</v>
+      </c>
+      <c r="B6" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="44">
+        <v>2</v>
+      </c>
+      <c r="D6" s="44">
+        <v>0</v>
+      </c>
+      <c r="E6" s="44">
+        <v>2</v>
+      </c>
+      <c r="F6" s="44">
+        <v>0</v>
+      </c>
+      <c r="G6" s="44">
+        <v>0</v>
+      </c>
+      <c r="O6" s="48"/>
+      <c r="P6" s="48"/>
+      <c r="Q6" s="48"/>
+      <c r="R6" s="48"/>
+      <c r="S6" s="48"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A7" s="57"/>
+      <c r="B7" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="44">
+        <v>0</v>
+      </c>
+      <c r="D7" s="44">
+        <v>3</v>
+      </c>
+      <c r="E7" s="44">
+        <v>0</v>
+      </c>
+      <c r="F7" s="44">
+        <v>3</v>
+      </c>
+      <c r="G7" s="44">
+        <v>3</v>
+      </c>
+      <c r="I7">
+        <f>SUM(C6:C8)</f>
+        <v>3</v>
+      </c>
+      <c r="J7">
+        <f t="shared" ref="J7:M7" si="0">SUM(D6:D8)</f>
+        <v>4</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="O7" s="48"/>
+      <c r="P7" s="48"/>
+      <c r="Q7" s="48"/>
+      <c r="R7" s="48"/>
+      <c r="S7" s="48"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A8" s="42">
+        <v>5</v>
+      </c>
+      <c r="B8" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="44">
+        <v>1</v>
+      </c>
+      <c r="D8" s="44">
+        <v>1</v>
+      </c>
+      <c r="E8" s="44">
+        <v>1</v>
+      </c>
+      <c r="F8" s="44">
+        <v>1</v>
+      </c>
+      <c r="G8" s="44">
+        <v>1</v>
+      </c>
+      <c r="J8" s="48"/>
+      <c r="K8" s="48"/>
+      <c r="O8" s="48"/>
+      <c r="P8" s="48"/>
+      <c r="Q8" s="48"/>
+      <c r="R8" s="48"/>
+      <c r="S8" s="48"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A9" s="42">
+        <v>6</v>
+      </c>
+      <c r="B9" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="44">
+        <v>4</v>
+      </c>
+      <c r="D9" s="44">
+        <v>4</v>
+      </c>
+      <c r="E9" s="44">
+        <v>4</v>
+      </c>
+      <c r="F9" s="44">
+        <v>5</v>
+      </c>
+      <c r="G9" s="44">
+        <v>6</v>
+      </c>
+      <c r="I9">
+        <f>SUM(C9:C10)</f>
+        <v>4</v>
+      </c>
+      <c r="J9">
+        <f t="shared" ref="J9:M9" si="1">SUM(D9:D10)</f>
+        <v>4</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="O9" s="48"/>
+      <c r="P9" s="48"/>
+      <c r="Q9" s="48"/>
+      <c r="R9" s="48"/>
+      <c r="S9" s="48"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A10" s="42">
+        <v>7</v>
+      </c>
+      <c r="B10" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="44">
+        <v>0</v>
+      </c>
+      <c r="D10" s="44">
+        <v>0</v>
+      </c>
+      <c r="E10" s="44">
+        <v>2</v>
+      </c>
+      <c r="F10" s="44">
+        <v>2</v>
+      </c>
+      <c r="G10" s="44">
+        <v>0</v>
+      </c>
+      <c r="J10" s="48"/>
+      <c r="K10" s="48"/>
+      <c r="O10" s="48"/>
+      <c r="P10" s="48"/>
+      <c r="Q10" s="48"/>
+      <c r="R10" s="48"/>
+      <c r="S10" s="48"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A11" s="42">
+        <v>8</v>
+      </c>
+      <c r="B11" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="44">
+        <v>1</v>
+      </c>
+      <c r="D11" s="44">
+        <v>1</v>
+      </c>
+      <c r="E11" s="44">
+        <v>1</v>
+      </c>
+      <c r="F11" s="44">
+        <v>1</v>
+      </c>
+      <c r="G11" s="44">
+        <v>1</v>
+      </c>
+      <c r="O11" s="48"/>
+      <c r="P11" s="48"/>
+      <c r="Q11" s="48"/>
+      <c r="R11" s="48"/>
+      <c r="S11" s="48"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A12" s="42">
+        <v>9</v>
+      </c>
+      <c r="B12" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="44">
+        <v>0.5</v>
+      </c>
+      <c r="D12" s="44">
+        <v>0.5</v>
+      </c>
+      <c r="E12" s="44">
+        <v>0.5</v>
+      </c>
+      <c r="F12" s="44">
+        <v>0.5</v>
+      </c>
+      <c r="G12" s="44">
+        <v>0.5</v>
+      </c>
+      <c r="I12">
+        <f>SUM(C12:C13)</f>
+        <v>2.5</v>
+      </c>
+      <c r="J12">
+        <f t="shared" ref="J12:M12" si="2">SUM(D12:D13)</f>
+        <v>2.5</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="2"/>
+        <v>2.5</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="2"/>
+        <v>2.5</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="2"/>
+        <v>2.5</v>
+      </c>
+      <c r="O12" s="48"/>
+      <c r="P12" s="48"/>
+      <c r="Q12" s="48"/>
+      <c r="R12" s="48"/>
+      <c r="S12" s="48"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A13" s="42">
+        <v>10</v>
+      </c>
+      <c r="B13" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="44">
+        <v>2</v>
+      </c>
+      <c r="D13" s="44">
+        <v>2</v>
+      </c>
+      <c r="E13" s="44">
+        <v>2</v>
+      </c>
+      <c r="F13" s="44">
+        <v>2</v>
+      </c>
+      <c r="G13" s="44">
+        <v>2</v>
+      </c>
+      <c r="O13" s="48"/>
+      <c r="P13" s="48"/>
+      <c r="Q13" s="48"/>
+      <c r="R13" s="48"/>
+      <c r="S13" s="48"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A14" s="42">
+        <v>11</v>
+      </c>
+      <c r="B14" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="44">
+        <v>0.5</v>
+      </c>
+      <c r="D14" s="44">
+        <v>0.5</v>
+      </c>
+      <c r="E14" s="44">
+        <v>0.5</v>
+      </c>
+      <c r="F14" s="44">
+        <v>0.5</v>
+      </c>
+      <c r="G14" s="44">
+        <v>0.5</v>
+      </c>
+      <c r="O14" s="48"/>
+      <c r="P14" s="48"/>
+      <c r="Q14" s="48"/>
+      <c r="R14" s="48"/>
+      <c r="S14" s="48"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A15" s="57">
+        <v>12</v>
+      </c>
+      <c r="B15" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="44">
+        <v>1</v>
+      </c>
+      <c r="D15" s="44">
+        <v>1</v>
+      </c>
+      <c r="E15" s="44">
+        <v>0</v>
+      </c>
+      <c r="F15" s="44">
+        <v>0</v>
+      </c>
+      <c r="G15" s="44">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <f>SUM(C15:C20)</f>
+        <v>1.5</v>
+      </c>
+      <c r="J15">
+        <f t="shared" ref="J15:M15" si="3">SUM(D15:D20)</f>
+        <v>2</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="O15" s="48"/>
+      <c r="P15" s="48"/>
+      <c r="Q15" s="48"/>
+      <c r="R15" s="48"/>
+      <c r="S15" s="48"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A16" s="57"/>
+      <c r="B16" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="44">
+        <v>0</v>
+      </c>
+      <c r="D16" s="44">
+        <v>0</v>
+      </c>
+      <c r="E16" s="44">
+        <v>1</v>
+      </c>
+      <c r="F16" s="44">
+        <v>1</v>
+      </c>
+      <c r="G16" s="44">
+        <v>0</v>
+      </c>
+      <c r="O16" s="48"/>
+      <c r="P16" s="48"/>
+      <c r="Q16" s="48"/>
+      <c r="R16" s="48"/>
+      <c r="S16" s="48"/>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A17" s="57"/>
+      <c r="B17" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="44">
+        <v>0</v>
+      </c>
+      <c r="D17" s="44">
+        <v>0</v>
+      </c>
+      <c r="E17" s="44">
+        <v>0</v>
+      </c>
+      <c r="F17" s="44">
+        <v>0</v>
+      </c>
+      <c r="G17" s="44">
+        <v>1</v>
+      </c>
+      <c r="O17" s="48"/>
+      <c r="P17" s="48"/>
+      <c r="Q17" s="48"/>
+      <c r="R17" s="48"/>
+      <c r="S17" s="48"/>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A18" s="57"/>
+      <c r="B18" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="44">
+        <v>0</v>
+      </c>
+      <c r="D18" s="44">
+        <v>0.5</v>
+      </c>
+      <c r="E18" s="44">
+        <v>0.5</v>
+      </c>
+      <c r="F18" s="44">
+        <v>0.5</v>
+      </c>
+      <c r="G18" s="44">
+        <v>0.5</v>
+      </c>
+      <c r="O18" s="48"/>
+      <c r="P18" s="48"/>
+      <c r="Q18" s="48"/>
+      <c r="R18" s="48"/>
+      <c r="S18" s="48"/>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A19" s="57">
+        <v>13</v>
+      </c>
+      <c r="B19" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="44">
+        <v>0.5</v>
+      </c>
+      <c r="D19" s="44">
+        <v>0.5</v>
+      </c>
+      <c r="E19" s="44">
+        <v>0</v>
+      </c>
+      <c r="F19" s="44">
+        <v>0</v>
+      </c>
+      <c r="G19" s="44">
+        <v>0</v>
+      </c>
+      <c r="O19" s="48"/>
+      <c r="P19" s="48"/>
+      <c r="Q19" s="48"/>
+      <c r="R19" s="48"/>
+      <c r="S19" s="48"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A20" s="57"/>
+      <c r="B20" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="44">
+        <v>0</v>
+      </c>
+      <c r="D20" s="44">
+        <v>0</v>
+      </c>
+      <c r="E20" s="44">
+        <v>0.5</v>
+      </c>
+      <c r="F20" s="44">
+        <v>0.5</v>
+      </c>
+      <c r="G20" s="44">
+        <v>0.5</v>
+      </c>
+      <c r="O20" s="48"/>
+      <c r="P20" s="48"/>
+      <c r="Q20" s="48"/>
+      <c r="R20" s="48"/>
+      <c r="S20" s="48"/>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A21" s="42">
+        <v>14</v>
+      </c>
+      <c r="B21" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="44">
+        <v>0.5</v>
+      </c>
+      <c r="D21" s="44">
+        <v>0.5</v>
+      </c>
+      <c r="E21" s="44">
+        <v>0.5</v>
+      </c>
+      <c r="F21" s="44">
+        <v>0.5</v>
+      </c>
+      <c r="G21" s="44">
+        <v>0.5</v>
+      </c>
+      <c r="O21" s="48"/>
+      <c r="P21" s="48"/>
+      <c r="Q21" s="48"/>
+      <c r="R21" s="48"/>
+      <c r="S21" s="48"/>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A22" s="42">
+        <v>15</v>
+      </c>
+      <c r="B22" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="44">
+        <v>2</v>
+      </c>
+      <c r="D22" s="44">
+        <v>2</v>
+      </c>
+      <c r="E22" s="44">
+        <v>2</v>
+      </c>
+      <c r="F22" s="44">
+        <v>2</v>
+      </c>
+      <c r="G22" s="44">
+        <v>2</v>
+      </c>
+      <c r="O22" s="48"/>
+      <c r="P22" s="48"/>
+      <c r="Q22" s="48"/>
+      <c r="R22" s="48"/>
+      <c r="S22" s="48"/>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A23" s="42">
+        <v>16</v>
+      </c>
+      <c r="B23" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" s="44">
+        <v>1</v>
+      </c>
+      <c r="D23" s="44">
+        <v>1</v>
+      </c>
+      <c r="E23" s="44">
+        <v>1</v>
+      </c>
+      <c r="F23" s="44">
+        <v>1</v>
+      </c>
+      <c r="G23" s="44">
+        <v>1</v>
+      </c>
+      <c r="O23" s="48"/>
+      <c r="P23" s="48"/>
+      <c r="Q23" s="48"/>
+      <c r="R23" s="48"/>
+      <c r="S23" s="48"/>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A24" s="46"/>
+      <c r="B24" s="24"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="J1:L1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="64" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/1_b_POLICoffee factory case study_annex1_pt2.xlsx
+++ b/1_b_POLICoffee factory case study_annex1_pt2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Documents\coding_projects\MATLAB\PoliCoffee\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF31EEA9-F0D6-441F-BA3E-5087BF53B9C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A46E14B-D20A-4DB2-9473-ADE15B8CC643}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Products" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="207">
   <si>
     <t>Product - processing times (minutes/piece)</t>
   </si>
@@ -651,6 +651,15 @@
   </si>
   <si>
     <t xml:space="preserve"> Workbench</t>
+  </si>
+  <si>
+    <t>Production</t>
+  </si>
+  <si>
+    <t>Entity Generation time</t>
+  </si>
+  <si>
+    <t>Batch size</t>
   </si>
 </sst>
 </file>
@@ -1034,17 +1043,14 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1077,6 +1083,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1553,13 +1562,13 @@
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="20"/>
       <c r="B1" s="21"/>
-      <c r="C1" s="59" t="s">
+      <c r="C1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
       <c r="H1" s="20" t="s">
         <v>1</v>
       </c>
@@ -2153,14 +2162,14 @@
       <c r="D27" s="3"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B38" s="60" t="s">
+      <c r="B38" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="C38" s="60"/>
-      <c r="D38" s="60"/>
-      <c r="E38" s="60"/>
-      <c r="F38" s="60"/>
-      <c r="G38" s="60"/>
+      <c r="C38" s="59"/>
+      <c r="D38" s="59"/>
+      <c r="E38" s="59"/>
+      <c r="F38" s="59"/>
+      <c r="G38" s="59"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="22" t="s">
@@ -2300,7 +2309,7 @@
       <c r="B54" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="C54" s="58">
+      <c r="C54" s="60">
         <v>11</v>
       </c>
     </row>
@@ -2309,21 +2318,21 @@
       <c r="B55" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="C55" s="58"/>
+      <c r="C55" s="60"/>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="57"/>
       <c r="B56" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="C56" s="58"/>
+      <c r="C56" s="60"/>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="57"/>
       <c r="B57" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="C57" s="58"/>
+      <c r="C57" s="60"/>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="57">
@@ -2332,7 +2341,7 @@
       <c r="B58" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="C58" s="58">
+      <c r="C58" s="60">
         <v>11</v>
       </c>
     </row>
@@ -2341,7 +2350,7 @@
       <c r="B59" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="C59" s="58"/>
+      <c r="C59" s="60"/>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="42">
@@ -2378,16 +2387,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="A54:A57"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="C54:C57"/>
+    <mergeCell ref="C58:C59"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A19:A20"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="A15:A18"/>
     <mergeCell ref="B38:G38"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="A54:A57"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="C54:C57"/>
-    <mergeCell ref="C58:C59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="64" orientation="portrait" r:id="rId1"/>
@@ -2405,8 +2414,8 @@
   </sheetPr>
   <dimension ref="A1:M68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="76" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView topLeftCell="A26" zoomScale="86" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2425,17 +2434,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="59" t="s">
         <v>99</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -3261,15 +3270,15 @@
       <c r="G32"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="60" t="s">
+      <c r="A33" s="59" t="s">
         <v>178</v>
       </c>
-      <c r="B33" s="60"/>
-      <c r="C33" s="60"/>
-      <c r="D33" s="60"/>
-      <c r="E33" s="60"/>
-      <c r="F33" s="60"/>
-      <c r="G33" s="60"/>
+      <c r="B33" s="59"/>
+      <c r="C33" s="59"/>
+      <c r="D33" s="59"/>
+      <c r="E33" s="59"/>
+      <c r="F33" s="59"/>
+      <c r="G33" s="59"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
@@ -3662,8 +3671,8 @@
   </sheetPr>
   <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView topLeftCell="A23" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3676,11 +3685,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
@@ -3742,7 +3751,7 @@
       <c r="N5" s="28"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="71">
+      <c r="A6" s="70">
         <v>4</v>
       </c>
       <c r="B6" s="8" t="s">
@@ -3755,7 +3764,7 @@
       <c r="N6" s="28"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="71"/>
+      <c r="A7" s="70"/>
       <c r="B7" s="14" t="s">
         <v>52</v>
       </c>
@@ -3857,7 +3866,7 @@
       <c r="N14" s="28"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" s="72">
+      <c r="A15" s="71">
         <v>12</v>
       </c>
       <c r="B15" s="14" t="s">
@@ -3870,7 +3879,7 @@
       <c r="N15" s="28"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" s="72"/>
+      <c r="A16" s="71"/>
       <c r="B16" s="8" t="s">
         <v>65</v>
       </c>
@@ -3881,7 +3890,7 @@
       <c r="N16" s="28"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A17" s="72"/>
+      <c r="A17" s="71"/>
       <c r="B17" s="14" t="s">
         <v>66</v>
       </c>
@@ -3892,7 +3901,7 @@
       <c r="N17" s="28"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A18" s="72"/>
+      <c r="A18" s="71"/>
       <c r="B18" s="8" t="s">
         <v>67</v>
       </c>
@@ -3903,7 +3912,7 @@
       <c r="N18" s="28"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A19" s="72">
+      <c r="A19" s="71">
         <v>13</v>
       </c>
       <c r="B19" s="14" t="s">
@@ -3916,7 +3925,7 @@
       <c r="N19" s="28"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A20" s="72"/>
+      <c r="A20" s="71"/>
       <c r="B20" s="8" t="s">
         <v>69</v>
       </c>
@@ -3982,12 +3991,12 @@
       <c r="N27" s="28"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A28" s="68" t="s">
+      <c r="A28" s="67" t="s">
         <v>73</v>
       </c>
-      <c r="B28" s="69"/>
-      <c r="C28" s="69"/>
-      <c r="D28" s="70"/>
+      <c r="B28" s="68"/>
+      <c r="C28" s="68"/>
+      <c r="D28" s="69"/>
       <c r="F28" s="27"/>
       <c r="N28" s="28"/>
     </row>
@@ -4084,17 +4093,17 @@
       <c r="D34" s="32">
         <v>2</v>
       </c>
-      <c r="F34" s="62" t="s">
+      <c r="F34" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="G34" s="63"/>
-      <c r="H34" s="63"/>
-      <c r="I34" s="63"/>
-      <c r="J34" s="63"/>
-      <c r="K34" s="63"/>
-      <c r="L34" s="63"/>
-      <c r="M34" s="63"/>
-      <c r="N34" s="64"/>
+      <c r="G34" s="62"/>
+      <c r="H34" s="62"/>
+      <c r="I34" s="62"/>
+      <c r="J34" s="62"/>
+      <c r="K34" s="62"/>
+      <c r="L34" s="62"/>
+      <c r="M34" s="62"/>
+      <c r="N34" s="63"/>
     </row>
     <row r="35" spans="1:14" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A35" s="27" t="s">
@@ -4134,7 +4143,7 @@
       <c r="C37" s="31">
         <v>2</v>
       </c>
-      <c r="D37" s="65">
+      <c r="D37" s="64">
         <v>3</v>
       </c>
     </row>
@@ -4148,7 +4157,7 @@
       <c r="C38" s="33">
         <v>1</v>
       </c>
-      <c r="D38" s="66"/>
+      <c r="D38" s="65"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -4190,18 +4199,18 @@
       <c r="B1" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="59" t="s">
+      <c r="C1" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="J1" s="61" t="s">
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="J1" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="40" t="s">
@@ -4933,7 +4942,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D2"/>
+      <selection activeCell="I41" sqref="I41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4945,12 +4954,12 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="67" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="70"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="69"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="25" t="s">
@@ -4996,11 +5005,11 @@
     </row>
     <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="68" t="s">
+      <c r="A9" s="67" t="s">
         <v>90</v>
       </c>
-      <c r="B9" s="69"/>
-      <c r="C9" s="70"/>
+      <c r="B9" s="68"/>
+      <c r="C9" s="69"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="27" t="s">
@@ -5061,10 +5070,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5077,7 +5086,7 @@
     <col min="17" max="17" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="C1" s="49" t="s">
         <v>94</v>
       </c>
@@ -5088,8 +5097,18 @@
       <c r="F1" s="73"/>
       <c r="G1" s="73"/>
       <c r="H1" s="73"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="M1" s="49" t="s">
+        <v>94</v>
+      </c>
+      <c r="N1" s="73" t="s">
+        <v>204</v>
+      </c>
+      <c r="O1" s="73"/>
+      <c r="P1" s="73"/>
+      <c r="Q1" s="73"/>
+      <c r="R1" s="73"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>96</v>
       </c>
@@ -5111,8 +5130,29 @@
       <c r="H2" s="50">
         <v>2030</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L2" t="s">
+        <v>96</v>
+      </c>
+      <c r="M2" s="50">
+        <v>2025</v>
+      </c>
+      <c r="N2" s="50">
+        <v>2026</v>
+      </c>
+      <c r="O2" s="50">
+        <v>2027</v>
+      </c>
+      <c r="P2" s="50">
+        <v>2028</v>
+      </c>
+      <c r="Q2" s="50">
+        <v>2029</v>
+      </c>
+      <c r="R2" s="50">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>97</v>
       </c>
@@ -5137,8 +5177,32 @@
       <c r="H3">
         <v>816</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K3" t="s">
+        <v>97</v>
+      </c>
+      <c r="L3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M3">
+        <v>2080</v>
+      </c>
+      <c r="N3">
+        <v>1496</v>
+      </c>
+      <c r="O3">
+        <v>1267</v>
+      </c>
+      <c r="P3">
+        <v>1114</v>
+      </c>
+      <c r="Q3">
+        <v>952</v>
+      </c>
+      <c r="R3">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>198</v>
       </c>
@@ -5163,8 +5227,32 @@
       <c r="H4">
         <v>723</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K4" t="s">
+        <v>198</v>
+      </c>
+      <c r="L4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M4">
+        <v>1885</v>
+      </c>
+      <c r="N4">
+        <v>1318</v>
+      </c>
+      <c r="O4">
+        <v>1122</v>
+      </c>
+      <c r="P4">
+        <v>986</v>
+      </c>
+      <c r="Q4">
+        <v>842</v>
+      </c>
+      <c r="R4">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>6</v>
       </c>
@@ -5186,8 +5274,29 @@
       <c r="H5">
         <v>1819</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L5" t="s">
+        <v>6</v>
+      </c>
+      <c r="M5">
+        <v>780</v>
+      </c>
+      <c r="N5">
+        <v>995</v>
+      </c>
+      <c r="O5">
+        <v>1241</v>
+      </c>
+      <c r="P5">
+        <v>1479</v>
+      </c>
+      <c r="Q5">
+        <v>1632</v>
+      </c>
+      <c r="R5">
+        <v>1819</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>7</v>
       </c>
@@ -5209,8 +5318,29 @@
       <c r="H6">
         <v>2134</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L6" t="s">
+        <v>7</v>
+      </c>
+      <c r="M6">
+        <v>780</v>
+      </c>
+      <c r="N6">
+        <v>1165</v>
+      </c>
+      <c r="O6">
+        <v>1454</v>
+      </c>
+      <c r="P6">
+        <v>1734</v>
+      </c>
+      <c r="Q6">
+        <v>1921</v>
+      </c>
+      <c r="R6">
+        <v>2134</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>8</v>
       </c>
@@ -5232,8 +5362,29 @@
       <c r="H7">
         <v>1726</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L7" t="s">
+        <v>8</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>434</v>
+      </c>
+      <c r="O7">
+        <v>867</v>
+      </c>
+      <c r="P7">
+        <v>1250</v>
+      </c>
+      <c r="Q7">
+        <v>1522</v>
+      </c>
+      <c r="R7">
+        <v>1726</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="51"/>
       <c r="B8" s="51" t="s">
         <v>98</v>
@@ -5266,17 +5417,51 @@
         <f>SUM(C8:H8)</f>
         <v>36519</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K8" s="51"/>
+      <c r="L8" s="51" t="s">
+        <v>98</v>
+      </c>
+      <c r="M8" s="51">
+        <f>SUM(M3:M7)</f>
+        <v>5525</v>
+      </c>
+      <c r="N8" s="51">
+        <f t="shared" ref="N8:R8" si="5">SUM(N3:N7)</f>
+        <v>5408</v>
+      </c>
+      <c r="O8" s="51">
+        <f t="shared" si="5"/>
+        <v>5951</v>
+      </c>
+      <c r="P8" s="51">
+        <f t="shared" si="5"/>
+        <v>6563</v>
+      </c>
+      <c r="Q8" s="51">
+        <f t="shared" si="5"/>
+        <v>6869</v>
+      </c>
+      <c r="R8" s="51">
+        <f t="shared" si="5"/>
+        <v>7218</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>94</v>
       </c>
       <c r="D12" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="M12" s="49"/>
+      <c r="N12" s="73"/>
+      <c r="O12" s="73"/>
+      <c r="P12" s="73"/>
+      <c r="Q12" s="73"/>
+      <c r="R12" s="73"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>96</v>
       </c>
@@ -5298,8 +5483,14 @@
       <c r="H13">
         <v>2030</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="M13" s="50"/>
+      <c r="N13" s="50"/>
+      <c r="O13" s="50"/>
+      <c r="P13" s="50"/>
+      <c r="Q13" s="50"/>
+      <c r="R13" s="50"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>4</v>
       </c>
@@ -5322,7 +5513,7 @@
         <v>0.113050707</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>201</v>
       </c>
@@ -5348,7 +5539,7 @@
         <v>0.100166251</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>202</v>
       </c>
@@ -5374,7 +5565,7 @@
         <v>0.25200886700000003</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>7</v>
       </c>
@@ -5397,7 +5588,7 @@
         <v>0.29564976399999998</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>8</v>
       </c>
@@ -5420,7 +5611,7 @@
         <v>0.23912441100000001</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
         <v>98</v>
       </c>
@@ -5442,10 +5633,79 @@
       <c r="H19">
         <v>1</v>
       </c>
+      <c r="K19" s="51"/>
+      <c r="L19" s="51"/>
+      <c r="M19" s="51"/>
+      <c r="N19" s="51"/>
+      <c r="O19" s="51"/>
+      <c r="P19" s="51"/>
+      <c r="Q19" s="51"/>
+      <c r="R19" s="51"/>
+    </row>
+    <row r="20" spans="2:18" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>205</v>
+      </c>
+      <c r="C24">
+        <f>(105600/C8)</f>
+        <v>23.414634146341463</v>
+      </c>
+      <c r="D24">
+        <f>(105600/D8)</f>
+        <v>19.526627218934912</v>
+      </c>
+      <c r="E24">
+        <f t="shared" ref="E24:H24" si="6">(105600/E8)</f>
+        <v>17.744916820702404</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="6"/>
+        <v>16.090202651226573</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="6"/>
+        <v>15.373416800116466</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="6"/>
+        <v>14.630091438071489</v>
+      </c>
+    </row>
+    <row r="25" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>206</v>
+      </c>
+      <c r="C25">
+        <f>(C8/220)</f>
+        <v>20.5</v>
+      </c>
+      <c r="D25">
+        <f t="shared" ref="D25:H25" si="7">(D8/220)</f>
+        <v>24.581818181818182</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="7"/>
+        <v>27.05</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="7"/>
+        <v>29.831818181818182</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="7"/>
+        <v>31.222727272727273</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="7"/>
+        <v>32.809090909090912</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="D1:H1"/>
+    <mergeCell ref="N1:R1"/>
+    <mergeCell ref="N12:R12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="87" orientation="portrait" r:id="rId1"/>
